--- a/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A73D1BB-7ED6-4AFE-8ABB-370DBD4ED5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA9E08E-DD16-4DE8-8A13-33A743E4E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4023F74E-F574-4C1D-93AE-AFAD56170C4D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9E06ED99-EA68-4B05-9C39-75B4A3AFA859}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,271 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>30,16%</t>
@@ -98,9 +359,6 @@
     <t>32,83%</t>
   </si>
   <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
     <t>28,17%</t>
   </si>
   <si>
@@ -128,39 +386,6 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
     <t>15,73%</t>
   </si>
   <si>
@@ -188,123 +413,141 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
     <t>30,35%</t>
   </si>
   <si>
@@ -359,33 +602,6 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
     <t>14,26%</t>
   </si>
   <si>
@@ -413,220 +629,31 @@
     <t>16,63%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>29,52%</t>
@@ -678,33 +705,6 @@
   </si>
   <si>
     <t>24,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
   </si>
   <si>
     <t>19,11%</t>
@@ -1123,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB82059-9F8A-4C38-9BE1-1BEE7F6B0888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4433B2-C0E1-40E6-BE14-7D75F47600C7}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1241,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>74708</v>
+        <v>5774</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1256,10 +1256,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>53018</v>
+        <v>5585</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1271,10 +1271,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>127727</v>
+        <v>11359</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1292,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>69766</v>
+        <v>2890</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1307,10 +1307,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>51176</v>
+        <v>3211</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>120942</v>
+        <v>6102</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1343,10 +1343,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>64263</v>
+        <v>2093</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1358,10 +1358,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>65996</v>
+        <v>2709</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1373,10 +1373,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>130259</v>
+        <v>4803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1394,10 +1394,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>38955</v>
+        <v>1941</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1409,10 +1409,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>20985</v>
+        <v>4446</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1424,10 +1424,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>59940</v>
+        <v>6386</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1445,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>247693</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1460,10 +1460,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>191175</v>
+        <v>15952</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1475,10 +1475,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>616</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>438868</v>
+        <v>28650</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1501,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>32721</v>
+        <v>25541</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1513,10 +1513,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>30384</v>
+        <v>32704</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1528,10 +1528,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N9" s="7">
-        <v>63106</v>
+        <v>58245</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1549,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>23613</v>
+        <v>32721</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1564,10 +1564,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>27563</v>
+        <v>30384</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1579,10 +1579,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N10" s="7">
-        <v>51176</v>
+        <v>63106</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1600,10 +1600,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>25541</v>
+        <v>23613</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>32704</v>
+        <v>27563</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1630,10 +1630,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>58245</v>
+        <v>51176</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1755,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>52776</v>
+        <v>64263</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1770,10 +1770,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7">
-        <v>48950</v>
+        <v>65996</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1785,10 +1785,10 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="N14" s="7">
-        <v>101726</v>
+        <v>130259</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1806,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>47253</v>
+        <v>74708</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1821,10 +1821,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7">
-        <v>48127</v>
+        <v>53018</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1836,10 +1836,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="N15" s="7">
-        <v>95380</v>
+        <v>127727</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>49061</v>
+        <v>69766</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1872,10 +1872,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>50454</v>
+        <v>51176</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1887,10 +1887,10 @@
         <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>99515</v>
+        <v>120942</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1908,10 +1908,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>24801</v>
+        <v>38955</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1923,10 +1923,10 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>18458</v>
+        <v>20985</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1938,10 +1938,10 @@
         <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>43260</v>
+        <v>59940</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1959,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="D18" s="7">
-        <v>173891</v>
+        <v>247693</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1974,10 +1974,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>165989</v>
+        <v>191175</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1989,10 +1989,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>468</v>
+        <v>616</v>
       </c>
       <c r="N18" s="7">
-        <v>339880</v>
+        <v>438868</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2012,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>2890</v>
+        <v>30726</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2027,10 +2027,10 @@
         <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>3211</v>
+        <v>36847</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>129</v>
@@ -2042,10 +2042,10 @@
         <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>6102</v>
+        <v>67574</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>132</v>
@@ -2063,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>2093</v>
+        <v>48685</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>135</v>
@@ -2078,10 +2078,10 @@
         <v>137</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>2709</v>
+        <v>44314</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>138</v>
@@ -2093,10 +2093,10 @@
         <v>140</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="N20" s="7">
-        <v>4803</v>
+        <v>92999</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>141</v>
@@ -2114,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D21" s="7">
-        <v>5774</v>
+        <v>50379</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>144</v>
@@ -2129,34 +2129,34 @@
         <v>146</v>
       </c>
       <c r="H21" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>5585</v>
+        <v>38915</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>110</v>
+      </c>
+      <c r="N21" s="7">
+        <v>89294</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M21" s="7">
-        <v>19</v>
-      </c>
-      <c r="N21" s="7">
-        <v>11359</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,49 +2165,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>1941</v>
+        <v>39226</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7">
+        <v>42424</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4446</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>98</v>
+      </c>
+      <c r="N22" s="7">
+        <v>81650</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="7">
-        <v>9</v>
-      </c>
-      <c r="N22" s="7">
-        <v>6386</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,10 +2216,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>169016</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2231,10 +2231,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I23" s="7">
-        <v>15952</v>
+        <v>162500</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2246,10 +2246,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="N23" s="7">
-        <v>28650</v>
+        <v>331516</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2263,55 +2263,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D24" s="7">
-        <v>48685</v>
+        <v>49061</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>75</v>
+      </c>
+      <c r="I24" s="7">
+        <v>50454</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="7">
-        <v>60</v>
-      </c>
-      <c r="I24" s="7">
-        <v>44314</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>151</v>
+      </c>
+      <c r="N24" s="7">
+        <v>99515</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M24" s="7">
-        <v>120</v>
-      </c>
-      <c r="N24" s="7">
-        <v>92999</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,46 +2320,46 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7">
-        <v>50379</v>
+        <v>52776</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>68</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48950</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="7">
-        <v>50</v>
-      </c>
-      <c r="I25" s="7">
-        <v>38915</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>140</v>
+      </c>
+      <c r="N25" s="7">
+        <v>101726</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M25" s="7">
-        <v>110</v>
-      </c>
-      <c r="N25" s="7">
-        <v>89294</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>178</v>
@@ -2371,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>30726</v>
+        <v>47253</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>179</v>
@@ -2386,10 +2386,10 @@
         <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I26" s="7">
-        <v>36847</v>
+        <v>48127</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>182</v>
@@ -2401,10 +2401,10 @@
         <v>184</v>
       </c>
       <c r="M26" s="7">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="N26" s="7">
-        <v>67574</v>
+        <v>95380</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>185</v>
@@ -2422,10 +2422,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D27" s="7">
-        <v>39226</v>
+        <v>24801</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>188</v>
@@ -2437,10 +2437,10 @@
         <v>190</v>
       </c>
       <c r="H27" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I27" s="7">
-        <v>42424</v>
+        <v>18458</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>191</v>
@@ -2452,10 +2452,10 @@
         <v>193</v>
       </c>
       <c r="M27" s="7">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="N27" s="7">
-        <v>81650</v>
+        <v>43260</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>194</v>
@@ -2473,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>169016</v>
+        <v>173891</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2488,10 +2488,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I28" s="7">
-        <v>162500</v>
+        <v>165989</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2503,10 +2503,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="N28" s="7">
-        <v>331516</v>
+        <v>339880</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2526,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D29" s="7">
-        <v>211780</v>
+        <v>175365</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>197</v>
@@ -2541,10 +2541,10 @@
         <v>199</v>
       </c>
       <c r="H29" s="7">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="I29" s="7">
-        <v>179878</v>
+        <v>191586</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>200</v>
@@ -2556,10 +2556,10 @@
         <v>202</v>
       </c>
       <c r="M29" s="7">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="N29" s="7">
-        <v>391658</v>
+        <v>366952</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>203</v>
@@ -2577,10 +2577,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D30" s="7">
-        <v>193105</v>
+        <v>211780</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>206</v>
@@ -2592,10 +2592,10 @@
         <v>208</v>
       </c>
       <c r="H30" s="7">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="I30" s="7">
-        <v>168490</v>
+        <v>179878</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>209</v>
@@ -2607,10 +2607,10 @@
         <v>211</v>
       </c>
       <c r="M30" s="7">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="N30" s="7">
-        <v>361595</v>
+        <v>391658</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>212</v>
@@ -2619,7 +2619,7 @@
         <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,49 +2628,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="D31" s="7">
-        <v>175365</v>
+        <v>193105</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="I31" s="7">
-        <v>191586</v>
+        <v>168490</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
-        <v>598</v>
+        <v>468</v>
       </c>
       <c r="N31" s="7">
-        <v>366952</v>
+        <v>361595</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0E786B-B1E9-45F1-8785-682DF802E393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ED6966-0D52-4489-877A-5465A4338541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29360274-F78D-4AC6-B647-51FA2C0078C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A609D50-4A23-4EE9-9BBB-C62C75FB0046}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
@@ -83,13 +83,13 @@
     <t>11,06%</t>
   </si>
   <si>
-    <t>36,3%</t>
+    <t>32,97%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>17,73%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -98,28 +98,28 @@
     <t>27,66%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -128,28 +128,28 @@
     <t>30,96%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
@@ -158,571 +158,574 @@
     <t>41,38%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>29,99%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1137,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5838DA8B-455F-44F3-87F2-A39AEBFF348F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D131B2-7728-4EF1-A7E0-CAEE55B38F5E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,7 +2122,7 @@
         <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2137,13 @@
         <v>71443</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -2149,13 +2152,13 @@
         <v>68803</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -2167,10 +2170,10 @@
         <v>68</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2188,13 @@
         <v>41673</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -2200,13 +2203,13 @@
         <v>45213</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -2215,10 +2218,10 @@
         <v>86886</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>157</v>
@@ -2361,7 +2364,7 @@
         <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -2370,13 +2373,13 @@
         <v>73399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2394,13 @@
         <v>69086</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2406,13 +2409,13 @@
         <v>70235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -2421,13 +2424,13 @@
         <v>139320</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2445,13 @@
         <v>53471</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>84</v>
@@ -2457,13 +2460,13 @@
         <v>58259</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>159</v>
@@ -2472,13 +2475,13 @@
         <v>111730</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2549,13 @@
         <v>49348</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>60</v>
@@ -2561,13 +2564,13 @@
         <v>45358</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -2576,13 +2579,13 @@
         <v>94706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2600,13 @@
         <v>161913</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>186</v>
@@ -2612,13 +2615,13 @@
         <v>127519</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -2627,13 +2630,13 @@
         <v>289432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2651,13 @@
         <v>299360</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>362</v>
@@ -2663,13 +2666,13 @@
         <v>257859</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>760</v>
@@ -2678,13 +2681,13 @@
         <v>557219</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2702,13 @@
         <v>212030</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -2714,13 +2717,13 @@
         <v>211381</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>621</v>
@@ -2729,13 +2732,13 @@
         <v>423411</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ED6966-0D52-4489-877A-5465A4338541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB4164D-0319-4550-9B8C-2F7509023664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A609D50-4A23-4EE9-9BBB-C62C75FB0046}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{813F74B4-C790-4F9C-B1C1-7F78BC0D3EED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="197">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,667 +65,565 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1140,8 +1038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D131B2-7728-4EF1-A7E0-CAEE55B38F5E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD02EEAE-E40C-4C65-8297-B4112A3DE8DF}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8425</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1273,187 +1171,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>1707</v>
+        <v>10608</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>1707</v>
+        <v>19034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>3512</v>
+        <v>23277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>5240</v>
+        <v>23731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7">
-        <v>8752</v>
+        <v>47009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7">
-        <v>3932</v>
+        <v>39253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>4189</v>
+        <v>53680</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>8120</v>
+        <v>92933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>5254</v>
+        <v>43017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>4304</v>
+        <v>52392</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="N7" s="7">
-        <v>9558</v>
+        <v>95409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,255 +1360,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7">
-        <v>12698</v>
+        <v>113972</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>15440</v>
+        <v>140412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="N8" s="7">
-        <v>28138</v>
+        <v>254384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>9157</v>
+        <v>10366</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>6824</v>
+        <v>16083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>15980</v>
+        <v>26449</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>19905</v>
+        <v>37775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>18386</v>
+        <v>51471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>38290</v>
+        <v>89245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>47616</v>
+        <v>78612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="I11" s="7">
-        <v>36835</v>
+        <v>108763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="N11" s="7">
-        <v>84450</v>
+        <v>187374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>37918</v>
+        <v>62380</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I12" s="7">
-        <v>39922</v>
+        <v>76119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>77840</v>
+        <v>138498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,255 +1617,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>114596</v>
+        <v>189132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="I13" s="7">
-        <v>101966</v>
+        <v>252435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>317</v>
+        <v>616</v>
       </c>
       <c r="N13" s="7">
-        <v>216561</v>
+        <v>441567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>15775</v>
+        <v>17307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>10539</v>
+        <v>15441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>26314</v>
+        <v>32748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>50921</v>
+        <v>34119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>38946</v>
+        <v>48236</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N15" s="7">
-        <v>89867</v>
+        <v>82355</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>107283</v>
+        <v>70929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>77798</v>
+        <v>75574</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="N16" s="7">
-        <v>185081</v>
+        <v>146503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>73714</v>
+        <v>63636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="7">
+        <v>58</v>
+      </c>
+      <c r="I17" s="7">
+        <v>46035</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="7">
         <v>115</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="7">
-        <v>102</v>
-      </c>
-      <c r="I17" s="7">
-        <v>63683</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="7">
-        <v>214</v>
-      </c>
       <c r="N17" s="7">
-        <v>137397</v>
+        <v>109671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,255 +1874,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>247693</v>
+        <v>185991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="I18" s="7">
-        <v>190966</v>
+        <v>185286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>616</v>
+        <v>447</v>
       </c>
       <c r="N18" s="7">
-        <v>438659</v>
+        <v>371277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>14600</v>
+        <v>9526</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>16687</v>
+        <v>10317</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>31286</v>
+        <v>19843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>45493</v>
+        <v>30033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>33630</v>
+        <v>43069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>79123</v>
+        <v>73102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D21" s="7">
-        <v>71443</v>
+        <v>67918</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>68803</v>
+        <v>71296</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N21" s="7">
-        <v>140247</v>
+        <v>139214</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
-        <v>41673</v>
+        <v>58009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>45213</v>
+        <v>55979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="N22" s="7">
-        <v>86886</v>
+        <v>113988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,255 +2131,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>165486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="I23" s="7">
-        <v>164333</v>
+        <v>180661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="N23" s="7">
-        <v>337542</v>
+        <v>346147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7">
-        <v>9817</v>
+        <v>45624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I24" s="7">
-        <v>9601</v>
+        <v>52450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="N24" s="7">
-        <v>19418</v>
+        <v>98074</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="D25" s="7">
-        <v>42082</v>
+        <v>125203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="I25" s="7">
-        <v>31317</v>
+        <v>166507</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="N25" s="7">
-        <v>73399</v>
+        <v>291710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>95</v>
+        <v>362</v>
       </c>
       <c r="D26" s="7">
-        <v>69086</v>
+        <v>256711</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="I26" s="7">
-        <v>70235</v>
+        <v>309313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
-        <v>191</v>
+        <v>760</v>
       </c>
       <c r="N26" s="7">
-        <v>139320</v>
+        <v>566024</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="D27" s="7">
-        <v>53471</v>
+        <v>227042</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="I27" s="7">
-        <v>58259</v>
+        <v>230524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
-        <v>159</v>
+        <v>621</v>
       </c>
       <c r="N27" s="7">
-        <v>111730</v>
+        <v>457566</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,319 +2388,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>237</v>
+        <v>927</v>
       </c>
       <c r="D28" s="7">
-        <v>174456</v>
+        <v>654580</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>237</v>
+        <v>972</v>
       </c>
       <c r="I28" s="7">
-        <v>169412</v>
+        <v>758794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>474</v>
+        <v>1899</v>
       </c>
       <c r="N28" s="7">
-        <v>343868</v>
+        <v>1413375</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7">
-        <v>49348</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="A29" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>60</v>
-      </c>
-      <c r="I29" s="7">
-        <v>45358</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>122</v>
-      </c>
-      <c r="N29" s="7">
-        <v>94706</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>210</v>
-      </c>
-      <c r="D30" s="7">
-        <v>161913</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="7">
-        <v>186</v>
-      </c>
-      <c r="I30" s="7">
-        <v>127519</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>396</v>
-      </c>
-      <c r="N30" s="7">
-        <v>289432</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7">
-        <v>398</v>
-      </c>
-      <c r="D31" s="7">
-        <v>299360</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7">
-        <v>362</v>
-      </c>
-      <c r="I31" s="7">
-        <v>257859</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="7">
-        <v>760</v>
-      </c>
-      <c r="N31" s="7">
-        <v>557219</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>302</v>
-      </c>
-      <c r="D32" s="7">
-        <v>212030</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="7">
-        <v>319</v>
-      </c>
-      <c r="I32" s="7">
-        <v>211381</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" s="7">
-        <v>621</v>
-      </c>
-      <c r="N32" s="7">
-        <v>423411</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>972</v>
-      </c>
-      <c r="D33" s="7">
-        <v>722651</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>927</v>
-      </c>
-      <c r="I33" s="7">
-        <v>642117</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1899</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1364768</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>230</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
